--- a/Urinematrices.xlsx
+++ b/Urinematrices.xlsx
@@ -1,128 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_96A1CD9A7820D6906566427BC0F9D80FA46159A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95C5F441-4164-47B2-96C7-838BEF45B91D}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="SamplesDetail" sheetId="1" r:id="rId1"/>
-    <sheet name="ConfusionMatrix" sheetId="2" r:id="rId2"/>
-    <sheet name="Scores" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SamplesDetail" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConfusionMatrix" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pvalues" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>RAMJA</t>
-  </si>
-  <si>
-    <t>AIIMS</t>
-  </si>
-  <si>
-    <t>Total common samples</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>Common Positive</t>
-  </si>
-  <si>
-    <t>Concordance [Common bacteria]</t>
-  </si>
-  <si>
-    <t>Common Negative</t>
-  </si>
-  <si>
-    <t>RAMJA Positive and AIIMS Negative</t>
-  </si>
-  <si>
-    <t>RAMJA Negative and AIIMS Positive</t>
-  </si>
-  <si>
-    <t>AIIMS Positive</t>
-  </si>
-  <si>
-    <t>AIIMS Negative</t>
-  </si>
-  <si>
-    <t>RAMJA Positive</t>
-  </si>
-  <si>
-    <t>RAMJA Negative</t>
-  </si>
-  <si>
-    <t>Scores</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
-    <t>Sensitivity</t>
-  </si>
-  <si>
-    <t>Specificity</t>
-  </si>
-  <si>
-    <t>Precision</t>
-  </si>
-  <si>
-    <t>Recall</t>
-  </si>
-  <si>
-    <t>F1 Score</t>
-  </si>
-  <si>
-    <t>PPV</t>
-  </si>
-  <si>
-    <t>NPV</t>
-  </si>
-  <si>
-    <t>PLR</t>
-  </si>
-  <si>
-    <t>NLR</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -137,44 +49,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -462,108 +423,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C9"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>RAMJA</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AIIMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Total common samples</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>130</v>
+      </c>
+      <c r="C2" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>89</v>
+      </c>
+      <c r="C3" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>41</v>
+      </c>
+      <c r="C4" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Common Positive</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>41</v>
+      </c>
+      <c r="C5" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Concordance [Common bacteria]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>26</v>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Common Negative</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>39</v>
+      </c>
+      <c r="C7" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RAMJA Positive and AIIMS Negative</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>48</v>
+      </c>
+      <c r="C8" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RAMJA Negative and AIIMS Positive</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>130</v>
-      </c>
-      <c r="C2">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>89</v>
-      </c>
-      <c r="C3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>41</v>
-      </c>
-      <c r="C4">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>41</v>
-      </c>
-      <c r="C5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>26</v>
-      </c>
-      <c r="C6">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>39</v>
-      </c>
-      <c r="C7">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>48</v>
-      </c>
-      <c r="C8">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -573,42 +558,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AIIMS Positive</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AIIMS Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RAMJA Positive</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>41</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RAMJA Negative</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>39</v>
       </c>
     </row>
@@ -618,98 +615,194 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.61538461538461542</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.95348837209302328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.44827586206896552</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Scores</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Sensitivity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9534883720930233</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Specificity</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4482758620689655</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>0.4606741573033708</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.95348837209302328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.62121212121212133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9534883720930233</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6212121212121213</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>PPV</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>0.4606741573033708</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.95121951219512191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1.7281976744186049</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="2">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>NPV</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9512195121951219</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>PLR</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.728197674418605</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>NLR</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>0.1037567084078711</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Z Score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>P Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Sensitivity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.679885554527629</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.003682366751806456</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Specificity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.134804498581143</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1282286204816521</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.596245595138793</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.05521698573868851</v>
       </c>
     </row>
   </sheetData>

--- a/Urinematrices.xlsx
+++ b/Urinematrices.xlsx
@@ -1,40 +1,138 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_D884E21E79711062C7DD5505942C22B904FFD667" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38987686-249E-4640-997E-58AFCE034173}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SamplesDetail" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConfusionMatrix" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pvalues" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="SamplesDetail" sheetId="1" r:id="rId1"/>
+    <sheet name="ConfusionMatrix" sheetId="2" r:id="rId2"/>
+    <sheet name="Scores" sheetId="3" r:id="rId3"/>
+    <sheet name="Pvalues" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+  <si>
+    <t>RAMJA</t>
+  </si>
+  <si>
+    <t>AIIMS</t>
+  </si>
+  <si>
+    <t>Total common samples</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Common Positive</t>
+  </si>
+  <si>
+    <t>Concordance [Common bacteria]</t>
+  </si>
+  <si>
+    <t>Common Negative</t>
+  </si>
+  <si>
+    <t>RAMJA Positive and AIIMS Negative</t>
+  </si>
+  <si>
+    <t>RAMJA Negative and AIIMS Positive</t>
+  </si>
+  <si>
+    <t>AIIMS Positive</t>
+  </si>
+  <si>
+    <t>AIIMS Negative</t>
+  </si>
+  <si>
+    <t>RAMJA Positive</t>
+  </si>
+  <si>
+    <t>RAMJA Negative</t>
+  </si>
+  <si>
+    <t>Scores</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1 Score</t>
+  </si>
+  <si>
+    <t>PPV</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>PLR</t>
+  </si>
+  <si>
+    <t>NLR</t>
+  </si>
+  <si>
+    <t>Z Score</t>
+  </si>
+  <si>
+    <t>P Value</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,93 +147,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -423,132 +472,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>RAMJA</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AIIMS</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Total common samples</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>130</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>130</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>89</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>43</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>41</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>87</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Common Positive</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>41</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>41</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Concordance [Common bacteria]</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>26</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>26</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Common Negative</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>39</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>39</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>RAMJA Positive and AIIMS Negative</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
         <v>48</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>48</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>RAMJA Negative and AIIMS Positive</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>2</v>
       </c>
     </row>
@@ -558,54 +581,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>AIIMS Positive</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AIIMS Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>RAMJA Positive</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
         <v>41</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>48</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>RAMJA Negative</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>39</v>
       </c>
     </row>
@@ -615,123 +624,95 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Scores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Accuracy</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.6153846153846154</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Sensitivity</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9534883720930233</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Specificity</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.4482758620689655</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>0.95348837209302328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>0.44827586206896552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
         <v>0.4606741573033708</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9534883720930233</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>F1 Score</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.6212121212121213</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>PPV</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>0.95348837209302328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>0.62121212121212133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
         <v>0.4606741573033708</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>NPV</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9512195121951219</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>PLR</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1.728197674418605</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>NLR</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>0.95121951219512191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>1.7281976744186049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
         <v>0.1037567084078711</v>
       </c>
     </row>
@@ -741,68 +722,54 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Z Score</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>P Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Sensitivity</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2.679885554527629</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.003682366751806456</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Specificity</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2.6798855545276292</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3.6823667518064559E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2">
         <v>1.134804498581143</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.1282286204816521</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Common</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="C3" s="2">
+        <v>0.12822862048165209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2">
         <v>1.596245595138793</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.05521698573868851</v>
+      <c r="C4" s="2">
+        <v>5.5216985738688509E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Urinematrices.xlsx
+++ b/Urinematrices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_D884E21E79711062C7DD5505942C22B904FFD667" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38987686-249E-4640-997E-58AFCE034173}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_86BA22061771D34821DD55893C77E7EC268E3287" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D59E6298-EBE0-4653-A889-5B083F12DD5B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="21210" yWindow="9600" windowWidth="7500" windowHeight="6000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SamplesDetail" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -492,10 +494,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="C2">
-        <v>130</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -506,7 +508,7 @@
         <v>89</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -514,10 +516,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -525,10 +527,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -547,10 +549,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C7">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -558,10 +560,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C8">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -569,10 +571,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +586,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -601,10 +605,10 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C2">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -612,10 +616,10 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -627,7 +631,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -640,80 +646,80 @@
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>0.61538461538461542</v>
+      <c r="B2" s="2">
+        <v>0.63580246913580252</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
-        <v>0.95348837209302328</v>
+      <c r="B3" s="2">
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
-        <v>0.44827586206896552</v>
+      <c r="B4" s="2">
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
-        <v>0.4606741573033708</v>
+      <c r="B5" s="2">
+        <v>0.3707865168539326</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
-        <v>0.95348837209302328</v>
+      <c r="B6" s="2">
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7">
-        <v>0.62121212121212133</v>
+      <c r="B7" s="2">
+        <v>0.52799999999999991</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8">
-        <v>0.4606741573033708</v>
+      <c r="B8" s="2">
+        <v>0.3707865168539326</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9">
-        <v>0.95121951219512191</v>
+      <c r="B9" s="2">
+        <v>0.95890410958904104</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10">
-        <v>1.7281976744186049</v>
+      <c r="B10" s="2">
+        <v>2.0625</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11">
-        <v>0.1037567084078711</v>
+      <c r="B11" s="2">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -744,10 +750,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="2">
-        <v>2.6798855545276292</v>
+        <v>2.279425765007892</v>
       </c>
       <c r="C2" s="2">
-        <v>3.6823667518064559E-3</v>
+        <v>1.1320884090240501E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -755,10 +761,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="2">
-        <v>1.134804498581143</v>
+        <v>1.267850543242381</v>
       </c>
       <c r="C3" s="2">
-        <v>0.12822862048165209</v>
+        <v>0.1024256642774878</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -766,10 +772,10 @@
         <v>27</v>
       </c>
       <c r="B4" s="2">
-        <v>1.596245595138793</v>
+        <v>1.7819090885901001</v>
       </c>
       <c r="C4" s="2">
-        <v>5.5216985738688509E-2</v>
+        <v>3.738202909493523E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Urinematrices.xlsx
+++ b/Urinematrices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_86BA22061771D34821DD55893C77E7EC268E3287" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D59E6298-EBE0-4653-A889-5B083F12DD5B}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_8F3BE319EA31D2665BDD556414BB32F343157696" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5277A1B-1040-4C1D-BDE7-F8844A1E4B3B}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="21210" yWindow="9600" windowWidth="7500" windowHeight="6000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SamplesDetail" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>RAMJA</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Total common samples</t>
+  </si>
+  <si>
+    <t>Control samples</t>
   </si>
   <si>
     <t>Positive</t>
@@ -473,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C9"/>
+      <selection activeCell="B2" sqref="B2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,10 +497,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="C2">
-        <v>162</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -505,10 +508,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -516,10 +519,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C4">
-        <v>126</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -527,10 +530,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -538,10 +541,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -549,10 +552,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="C7">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -560,10 +563,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="C8">
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -571,10 +574,21 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -594,32 +608,32 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>33</v>
       </c>
       <c r="C2">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -631,95 +645,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2">
-        <v>0.63580246913580252</v>
+        <v>0.60204081632653061</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.89189189189189189</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2">
-        <v>0.55555555555555558</v>
+        <v>0.53459119496855345</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>0.3707865168539326</v>
+        <v>0.30841121495327101</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.89189189189189189</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>0.52799999999999991</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>0.3707865168539326</v>
+        <v>0.30841121495327101</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2">
-        <v>0.95890410958904104</v>
+        <v>0.9550561797752809</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2">
-        <v>2.0625</v>
+        <v>1.9163623082542001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2">
-        <v>0.15</v>
+        <v>0.20222575516693159</v>
       </c>
     </row>
   </sheetData>
@@ -731,51 +745,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2">
-        <v>2.279425765007892</v>
+        <v>2.231648731455302</v>
       </c>
       <c r="C2" s="2">
-        <v>1.1320884090240501E-2</v>
+        <v>1.28190940872372E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
-        <v>1.267850543242381</v>
+        <v>1.389257914020761</v>
       </c>
       <c r="C3" s="2">
-        <v>0.1024256642774878</v>
+        <v>8.2377168305825255E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2">
-        <v>1.7819090885901001</v>
+        <v>1.96</v>
       </c>
       <c r="C4" s="2">
-        <v>3.738202909493523E-2</v>
+        <v>2.4997895148220421E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Urinematrices.xlsx
+++ b/Urinematrices.xlsx
@@ -1,40 +1,141 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_843823001D49137669DC559BBC9EFC159CEDDFEC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03D264C2-43D4-4982-B800-F3C58B1FCDBD}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SamplesDetail" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConfusionMatrix" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pvalues" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="SamplesDetail" sheetId="1" r:id="rId1"/>
+    <sheet name="ConfusionMatrix" sheetId="2" r:id="rId2"/>
+    <sheet name="Scores" sheetId="3" r:id="rId3"/>
+    <sheet name="Pvalues" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+  <si>
+    <t>RAMJA</t>
+  </si>
+  <si>
+    <t>AIIMS</t>
+  </si>
+  <si>
+    <t>Total common samples</t>
+  </si>
+  <si>
+    <t>Control samples</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Common Positive</t>
+  </si>
+  <si>
+    <t>Concordance [Common bacteria]</t>
+  </si>
+  <si>
+    <t>Common Negative</t>
+  </si>
+  <si>
+    <t>RAMJA Positive and AIIMS Negative</t>
+  </si>
+  <si>
+    <t>RAMJA Negative and AIIMS Positive</t>
+  </si>
+  <si>
+    <t>AIIMS Positive</t>
+  </si>
+  <si>
+    <t>AIIMS Negative</t>
+  </si>
+  <si>
+    <t>RAMJA Positive</t>
+  </si>
+  <si>
+    <t>RAMJA Negative</t>
+  </si>
+  <si>
+    <t>Scores</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1 Score</t>
+  </si>
+  <si>
+    <t>PPV</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>PLR</t>
+  </si>
+  <si>
+    <t>NLR</t>
+  </si>
+  <si>
+    <t>Z Score</t>
+  </si>
+  <si>
+    <t>P Value</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,93 +150,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -423,145 +475,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>RAMJA</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AIIMS</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Total common samples</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>199</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>199</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Control samples</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>35</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>35</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>110</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>47</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>89</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>152</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Common Positive</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>41</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>41</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Concordance [Common bacteria]</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>26</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>26</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Common Negative</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
         <v>83</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>83</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>RAMJA Positive and AIIMS Negative</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
         <v>69</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>69</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>RAMJA Negative and AIIMS Positive</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>6</v>
       </c>
     </row>
@@ -571,54 +597,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>AIIMS Positive</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AIIMS Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>RAMJA Positive</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
         <v>41</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>69</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>RAMJA Negative</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
         <v>6</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>83</v>
       </c>
     </row>
@@ -628,124 +642,98 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Scores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Accuracy</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.6231155778894473</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Sensitivity</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.8723404255319149</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Specificity</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.5460526315789473</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.3727272727272727</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.8723404255319149</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>F1 Score</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.5222929936305732</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>PPV</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.3727272727272727</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>NPV</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9325842696629213</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>PLR</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.62311557788944727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.87234042553191493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.54605263157894735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.37272727272727268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.87234042553191493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.52229299363057324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.37272727272727268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.93258426966292129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2">
         <v>1.921677459142769</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>NLR</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.233786208664445</v>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.23378620866444499</v>
       </c>
     </row>
   </sheetData>
@@ -754,68 +742,54 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Z Score</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>P Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Sensitivity</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2">
         <v>2.092376745988751</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.0182024136457711</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Specificity</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="C2" s="2">
+        <v>1.82024136457711E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2">
         <v>1.402457072073227</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.08038940045825804</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Common</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1.974943037153224</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.02413730633867646</v>
+      <c r="C3" s="2">
+        <v>8.0389400458258042E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.9749430371532239</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.4137306338676459E-2</v>
       </c>
     </row>
   </sheetData>
